--- a/biology/Botanique/Pterospermum/Pterospermum.xlsx
+++ b/biology/Botanique/Pterospermum/Pterospermum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pterospermum est un genre de plantes à fleurs comprenant cinq espèces d'arbres. Traditionnellement dans la famille sterculiaceae, il est inclus dans l'extension Malvaceae par l'APG.
 Certaines espèces sont cultivées dans un but ornemental tandis que d'autres sont appréciées pour leur bois.
@@ -512,7 +524,9 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Pterospermum acerifolium
 Pterospermum celebicum
